--- a/Tables/Table_S1.xlsx
+++ b/Tables/Table_S1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
   <si>
     <t>Predictor</t>
   </si>
@@ -20,27 +20,24 @@
     <t>Type</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>ci.lb</t>
-  </si>
-  <si>
-    <t>ci.ub</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>U</t>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>CI</t>
   </si>
   <si>
     <t>p</t>
   </si>
   <si>
+    <t>rosenthal_N</t>
+  </si>
+  <si>
+    <t>rosenthal_p</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -161,81 +158,12 @@
     <t>0.337</t>
   </si>
   <si>
-    <t>0.523</t>
-  </si>
-  <si>
-    <t>-0.09</t>
-  </si>
-  <si>
-    <t>-1.325</t>
-  </si>
-  <si>
-    <t>-0.232</t>
-  </si>
-  <si>
-    <t>-0.987</t>
-  </si>
-  <si>
-    <t>0.428</t>
-  </si>
-  <si>
-    <t>0.597</t>
-  </si>
-  <si>
-    <t>-0.41</t>
-  </si>
-  <si>
-    <t>-0.012</t>
-  </si>
-  <si>
-    <t>-0.136</t>
-  </si>
-  <si>
-    <t>-0.784</t>
-  </si>
-  <si>
-    <t>-0.231</t>
-  </si>
-  <si>
-    <t>0.811</t>
-  </si>
-  <si>
-    <t>0.742</t>
-  </si>
-  <si>
-    <t>-0.004</t>
-  </si>
-  <si>
-    <t>-0.102</t>
-  </si>
-  <si>
-    <t>-0.014</t>
-  </si>
-  <si>
-    <t>0.983</t>
-  </si>
-  <si>
-    <t>0.995</t>
-  </si>
-  <si>
-    <t>0.282</t>
+    <t>0.322</t>
   </si>
   <si>
     <t>0.162</t>
   </si>
   <si>
-    <t>0.591</t>
-  </si>
-  <si>
-    <t>-0.365</t>
-  </si>
-  <si>
-    <t>0.906</t>
-  </si>
-  <si>
-    <t>0.322</t>
-  </si>
-  <si>
     <t>-0.32</t>
   </si>
   <si>
@@ -266,73 +194,40 @@
     <t>0.167</t>
   </si>
   <si>
-    <t>0.256</t>
-  </si>
-  <si>
-    <t>-0.045</t>
-  </si>
-  <si>
-    <t>-0.58</t>
-  </si>
-  <si>
-    <t>-0.115</t>
-  </si>
-  <si>
-    <t>-0.457</t>
-  </si>
-  <si>
-    <t>0.211</t>
-  </si>
-  <si>
-    <t>0.29</t>
-  </si>
-  <si>
-    <t>-0.202</t>
-  </si>
-  <si>
-    <t>-0.006</t>
-  </si>
-  <si>
-    <t>-0.068</t>
-  </si>
-  <si>
-    <t>-0.373</t>
-  </si>
-  <si>
-    <t>0.385</t>
-  </si>
-  <si>
-    <t>0.355</t>
-  </si>
-  <si>
-    <t>-0.002</t>
-  </si>
-  <si>
-    <t>-0.051</t>
-  </si>
-  <si>
-    <t>-0.007</t>
-  </si>
-  <si>
-    <t>0.455</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>0.081</t>
-  </si>
-  <si>
-    <t>0.287</t>
-  </si>
-  <si>
-    <t>-0.18</t>
-  </si>
-  <si>
-    <t>0.424</t>
+    <t>(0.523, 0.811)</t>
+  </si>
+  <si>
+    <t>(-0.09, 0.742)</t>
+  </si>
+  <si>
+    <t>(-1.325, -0.004)</t>
+  </si>
+  <si>
+    <t>(-0.232, -0.102)</t>
+  </si>
+  <si>
+    <t>(-0.987, -0.014)</t>
+  </si>
+  <si>
+    <t>(0.428, 0.983)</t>
+  </si>
+  <si>
+    <t>(0.597, 0.995)</t>
+  </si>
+  <si>
+    <t>(-0.41, 0.282)</t>
+  </si>
+  <si>
+    <t>(-0.012, 0.162)</t>
+  </si>
+  <si>
+    <t>(-0.136, 0.591)</t>
+  </si>
+  <si>
+    <t>(-0.784, -0.365)</t>
+  </si>
+  <si>
+    <t>(-0.231, 0.906)</t>
   </si>
   <si>
     <t>&lt;0.001</t>
@@ -357,6 +252,9 @@
   </si>
   <si>
     <t>0.245</t>
+  </si>
+  <si>
+    <t>0.006</t>
   </si>
 </sst>
 </file>
@@ -433,392 +331,353 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" t="s">
-        <v>84</v>
+        <v>72</v>
+      </c>
+      <c r="H2" t="n">
+        <v>109282.0</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" t="s">
-        <v>85</v>
+        <v>73</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10.0</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>74</v>
       </c>
-      <c r="H4" t="s">
-        <v>86</v>
+      <c r="H4" t="n">
+        <v>4492.0</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" t="s">
-        <v>87</v>
+        <v>72</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.11452353E8</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
-      </c>
-      <c r="J5" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" t="s">
-        <v>88</v>
+        <v>75</v>
+      </c>
+      <c r="H6" t="n">
+        <v>392157.0</v>
       </c>
       <c r="I6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J6" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" t="s">
-        <v>89</v>
+        <v>72</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1345.0</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J7" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" t="s">
-        <v>90</v>
+        <v>72</v>
+      </c>
+      <c r="H8" t="n">
+        <v>27486.0</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" t="s">
-        <v>91</v>
+        <v>76</v>
+      </c>
+      <c r="H9" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
-      </c>
-      <c r="J9" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" t="s">
-        <v>92</v>
+        <v>77</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.80432527E8</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
-      </c>
-      <c r="J10" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" t="s">
-        <v>93</v>
+        <v>78</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.1299801E8</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
-      </c>
-      <c r="J11" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" t="s">
-        <v>94</v>
+        <v>72</v>
+      </c>
+      <c r="H12" t="n">
+        <v>26.0</v>
       </c>
       <c r="I12" t="s">
-        <v>105</v>
-      </c>
-      <c r="J12" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" t="s">
-        <v>87</v>
+        <v>79</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.0994326E7</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
